--- a/Automation-UserCMD/TestData/Outputs/SkillOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/SkillOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Skill (4)" sheetId="1" r:id="R2caec78c05684abf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Skill (4)" sheetId="1" r:id="R28a1b1a6574644aa"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/SkillOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/SkillOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Skill (4)" sheetId="1" r:id="R28a1b1a6574644aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Skill (4)" sheetId="1" r:id="Rd9a34b99613f433d"/>
   </x:sheets>
 </x:workbook>
 </file>
